--- a/doc/01 概要设计/03 业务流程.xlsx
+++ b/doc/01 概要设计/03 业务流程.xlsx
@@ -201,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +220,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,10 +232,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,16 +1092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1101,8 +1110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="1228725"/>
-          <a:ext cx="1638300" cy="688848"/>
+          <a:off x="1762125" y="3800475"/>
+          <a:ext cx="1314450" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1142,13 +1151,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>164973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1199,14 +1208,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3048</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1215,7 +1224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="2305050"/>
+          <a:off x="3657600" y="3305175"/>
           <a:ext cx="1638300" cy="688848"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1265,13 +1274,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>136398</xdr:rowOff>
+      <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1280,7 +1289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="3409950"/>
+          <a:off x="3667125" y="4419600"/>
           <a:ext cx="1638300" cy="669798"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1322,13 +1331,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>136398</xdr:rowOff>
+      <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1337,7 +1346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="3409950"/>
+          <a:off x="6086475" y="4419600"/>
           <a:ext cx="1638300" cy="669798"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1376,16 +1385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1394,8 +1403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="1933575"/>
-          <a:ext cx="142875" cy="361950"/>
+          <a:off x="2447925" y="4000500"/>
+          <a:ext cx="171450" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1430,42 +1439,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="右箭头 7"/>
+        <xdr:cNvPr id="9" name="下箭头 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="2543175"/>
-          <a:ext cx="866775" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="4391025" y="4010025"/>
+          <a:ext cx="142875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1484,70 +1493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="下箭头 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4391025" y="3019425"/>
-          <a:ext cx="142875" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1524</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3112</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1559,7 +1514,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5305425" y="3754374"/>
+          <a:off x="5305425" y="4754499"/>
           <a:ext cx="781050" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1589,15 +1544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88773</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1606,8 +1561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="1247775"/>
-          <a:ext cx="1638300" cy="688848"/>
+          <a:off x="8124825" y="1447800"/>
+          <a:ext cx="1638300" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1646,15 +1601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107823</xdr:rowOff>
+      <xdr:rowOff>126873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1663,7 +1618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="2238375"/>
+          <a:off x="8162925" y="2371725"/>
           <a:ext cx="1638300" cy="669798"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1703,15 +1658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98298</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1720,7 +1675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="3181350"/>
+          <a:off x="8172450" y="3305175"/>
           <a:ext cx="1638300" cy="669798"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1759,34 +1714,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>125349</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>136398</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="形状 13"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
+          <a:stCxn id="5" idx="3"/>
           <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5109400" y="969074"/>
-          <a:ext cx="2487549" cy="3733800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipV="1">
+          <a:off x="5305425" y="1800225"/>
+          <a:ext cx="2819400" cy="2954274"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -10206"/>
-            <a:gd name="adj2" fmla="val 94132"/>
+            <a:gd name="adj1" fmla="val 11824"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1813,34 +1767,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144399</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>136398</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="形状 14"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
+          <a:stCxn id="5" idx="3"/>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5599937" y="1450086"/>
-          <a:ext cx="1515999" cy="3743325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipV="1">
+          <a:off x="5305425" y="2706624"/>
+          <a:ext cx="2857500" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -16764"/>
-            <a:gd name="adj2" fmla="val 93765"/>
+            <a:gd name="adj1" fmla="val 12000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1867,38 +1820,430 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>134874</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>136398</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="形状 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
+          <a:stCxn id="5" idx="3"/>
           <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6076188" y="1916811"/>
-          <a:ext cx="573024" cy="3752850"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipV="1">
+          <a:off x="5305425" y="3640074"/>
+          <a:ext cx="2867025" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44313"/>
-            <a:gd name="adj2" fmla="val 93402"/>
+            <a:gd name="adj1" fmla="val 12126"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="流程图: 过程 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="1228725"/>
+          <a:ext cx="1638300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新建销售合同</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="流程图: 过程 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2095500"/>
+          <a:ext cx="1638300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>审核销售合同</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="流程图: 过程 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="2895600"/>
+          <a:ext cx="1638300" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售合同生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="下箭头 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="1685925"/>
+          <a:ext cx="142875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="下箭头 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="2505075"/>
+          <a:ext cx="142875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="下箭头 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="3429000"/>
+          <a:ext cx="104775" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2771775" y="3649599"/>
+          <a:ext cx="885825" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -2230,28 +2575,28 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16">
@@ -2440,7 +2785,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="2"/>
@@ -2454,88 +2799,178 @@
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="M5" s="3"/>
+    <row r="5" spans="2:16" ht="24" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="M6" s="3"/>
+    <row r="6" spans="2:16" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="M7" s="3"/>
+    <row r="7" spans="2:16" ht="24" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="M8" s="3"/>
+    <row r="8" spans="2:16" ht="24" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="M9" s="3"/>
+    <row r="9" spans="2:16" ht="24" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="M10" s="3"/>
+    <row r="10" spans="2:16" ht="24" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="M11" s="3"/>
+    <row r="11" spans="2:16" ht="24" customHeight="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="M12" s="3"/>
+    <row r="12" spans="2:16" ht="24" customHeight="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="13" spans="2:16" ht="24" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16">
